--- a/data/古籍讨论度.xlsx
+++ b/data/古籍讨论度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\ghzj_back\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388C82B0-1C63-487F-B15A-F10F6D520CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B58ECA9-9EB1-481A-A14D-9CB8E56147F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>古籍出现次数</t>
   </si>
@@ -106,13 +106,70 @@
   <si>
     <t>梁清標</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱若極</t>
+  </si>
+  <si>
+    <t>劉承幹</t>
+  </si>
+  <si>
+    <t>王武</t>
+  </si>
+  <si>
+    <t>劉恕</t>
+  </si>
+  <si>
+    <t>趙構</t>
+  </si>
+  <si>
+    <t>張珩</t>
+  </si>
+  <si>
+    <t>王世懋</t>
+  </si>
+  <si>
+    <t>魯得之</t>
+  </si>
+  <si>
+    <t>董誥</t>
+  </si>
+  <si>
+    <t>吳騫</t>
+  </si>
+  <si>
+    <t>唐翰題</t>
+  </si>
+  <si>
+    <t>沈宗敬</t>
+  </si>
+  <si>
+    <t>查士標</t>
+  </si>
+  <si>
+    <t>年羹堯</t>
+  </si>
+  <si>
+    <t>李嘉福</t>
+  </si>
+  <si>
+    <t>梁章鉅</t>
+  </si>
+  <si>
+    <t>戴植</t>
+  </si>
+  <si>
+    <t>朱耷</t>
+  </si>
+  <si>
+    <t>馮登府</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +206,19 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -170,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -192,6 +262,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,18 +549,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -492,7 +568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -500,7 +576,7 @@
         <v>7083</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -508,7 +584,7 @@
         <v>7949</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -516,7 +592,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -524,7 +600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -532,7 +608,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -540,7 +616,7 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
         <v>21</v>
       </c>
@@ -548,7 +624,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -556,7 +632,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -564,7 +640,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -572,7 +648,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -580,7 +656,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -588,15 +664,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -604,7 +680,7 @@
         <v>145185</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -612,7 +688,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -620,7 +696,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
@@ -628,7 +704,7 @@
         <v>59708</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -636,7 +712,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
@@ -644,7 +720,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
@@ -652,7 +728,7 @@
         <v>3374</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -660,7 +736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
@@ -668,12 +744,172 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="3">
         <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="3">
+        <v>8365</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="3">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="3">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/data/古籍讨论度.xlsx
+++ b/data/古籍讨论度.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\ghzj_back\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B58ECA9-9EB1-481A-A14D-9CB8E56147F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FEB8DD-B723-488B-93B3-240E0E07A2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -645,7 +645,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="3">
-        <v>129</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -661,7 +661,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="3">
-        <v>21</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:2">

--- a/data/古籍讨论度.xlsx
+++ b/data/古籍讨论度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\ghzj_back\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FEB8DD-B723-488B-93B3-240E0E07A2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BB06E2-CF46-4D8B-83B9-79F5CD733AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5412" yWindow="3408" windowWidth="12720" windowHeight="8952" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -661,7 +661,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="3">
-        <v>210</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2">

--- a/data/古籍讨论度.xlsx
+++ b/data/古籍讨论度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\ghzj_back\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BB06E2-CF46-4D8B-83B9-79F5CD733AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDA0CBB-9CBA-4B12-BDE5-B50719967B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5412" yWindow="3408" windowWidth="12720" windowHeight="8952" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -645,7 +645,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="3">
-        <v>59</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2">

--- a/data/古籍讨论度.xlsx
+++ b/data/古籍讨论度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\ghzj_back\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDA0CBB-9CBA-4B12-BDE5-B50719967B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DA935E-8A33-41F1-ACBA-8613AB17E305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5412" yWindow="3408" windowWidth="12720" windowHeight="8952" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -589,7 +589,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>2680</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="5" spans="1:2">

--- a/data/古籍讨论度.xlsx
+++ b/data/古籍讨论度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\ghzj_back\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DA935E-8A33-41F1-ACBA-8613AB17E305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3301FC21-C11C-492A-B4AC-D3DD61120674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>古籍出现次数</t>
   </si>
@@ -163,6 +163,13 @@
   </si>
   <si>
     <t>馮登府</t>
+  </si>
+  <si>
+    <t>孫克弘</t>
+  </si>
+  <si>
+    <t>孫克宏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -549,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -912,6 +919,22 @@
         <v>191</v>
       </c>
     </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>226</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/古籍讨论度.xlsx
+++ b/data/古籍讨论度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\ghzj_back\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3301FC21-C11C-492A-B4AC-D3DD61120674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAD3870-4E32-40D7-8CD8-BA92E3717518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -596,7 +596,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>3680</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -612,7 +612,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="3">
-        <v>901</v>
+        <v>801</v>
       </c>
     </row>
     <row r="7" spans="1:2">

--- a/data/古籍讨论度.xlsx
+++ b/data/古籍讨论度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\ghzj_back\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAD3870-4E32-40D7-8CD8-BA92E3717518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6974B91C-985D-41D4-B770-C4C1EB8C013B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -580,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>7083</v>
+        <v>6083</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -620,7 +620,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>2970</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="8" spans="1:2">

--- a/data/古籍讨论度.xlsx
+++ b/data/古籍讨论度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\ghzj_back\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6974B91C-985D-41D4-B770-C4C1EB8C013B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5198350F-8FCF-4CCC-BEBF-4D7558364BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>古籍出现次数</t>
   </si>
@@ -170,13 +170,63 @@
   <si>
     <t>孫克宏</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘇軾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡肇</t>
+  </si>
+  <si>
+    <t>李之儀</t>
+  </si>
+  <si>
+    <t>王詵</t>
+  </si>
+  <si>
+    <t>秦觀</t>
+  </si>
+  <si>
+    <t>陳景元</t>
+  </si>
+  <si>
+    <t>李公麟</t>
+  </si>
+  <si>
+    <t>蘇轍</t>
+  </si>
+  <si>
+    <t>張耒</t>
+  </si>
+  <si>
+    <t>黃庭堅</t>
+  </si>
+  <si>
+    <t>晁補之</t>
+  </si>
+  <si>
+    <t>鄭靖</t>
+  </si>
+  <si>
+    <t>米芾</t>
+  </si>
+  <si>
+    <t>王欽臣</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉涇</t>
+  </si>
+  <si>
+    <t>釋懷賢</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +276,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -247,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -274,6 +330,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -556,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -935,6 +994,134 @@
         <v>226</v>
       </c>
     </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>41219</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>8454</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>9367</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/古籍讨论度.xlsx
+++ b/data/古籍讨论度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\ghzj_back\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5198350F-8FCF-4CCC-BEBF-4D7558364BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25678379-608D-43CD-856C-C59148C60E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -618,7 +618,7 @@
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1047,7 +1047,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1055</v>
+        <v>755</v>
       </c>
     </row>
     <row r="54" spans="1:2">

--- a/data/古籍讨论度.xlsx
+++ b/data/古籍讨论度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\ghzj_back\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25678379-608D-43CD-856C-C59148C60E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C8CAFD-A312-4FD9-85A9-1F1EC36927A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>古籍出现次数</t>
   </si>
@@ -220,6 +220,10 @@
   </si>
   <si>
     <t>釋懷賢</t>
+  </si>
+  <si>
+    <t>黃公望</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -615,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1122,6 +1126,14 @@
         <v>6</v>
       </c>
     </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>662</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/古籍讨论度.xlsx
+++ b/data/古籍讨论度.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\ghzj_back\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C8CAFD-A312-4FD9-85A9-1F1EC36927A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100240A0-5A36-4A5F-91C9-CC314F0453E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>古籍出现次数</t>
   </si>
@@ -82,10 +82,6 @@
   </si>
   <si>
     <t>張應甲</t>
-  </si>
-  <si>
-    <t>题跋人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>歐陽玄</t>
@@ -223,6 +219,14 @@
   </si>
   <si>
     <t>黃公望</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>印章题跋人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有生卒年</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -619,26 +623,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -646,7 +654,7 @@
         <v>6083</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -654,7 +662,7 @@
         <v>7949</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -662,7 +670,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -670,15 +678,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3">
         <v>801</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -686,15 +694,15 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3">
         <v>762</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -702,7 +710,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -710,15 +718,15 @@
         <v>824</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -726,23 +734,23 @@
         <v>625</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="3">
         <v>410</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -750,7 +758,7 @@
         <v>145185</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -824,7 +832,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3">
         <v>303</v>
@@ -832,7 +840,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3">
         <v>170</v>
@@ -840,7 +848,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3">
         <v>8365</v>
@@ -848,7 +856,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3">
         <v>958</v>
@@ -856,7 +864,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3">
         <v>122</v>
@@ -864,7 +872,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3">
         <v>350</v>
@@ -872,7 +880,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3">
         <v>523</v>
@@ -880,7 +888,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="3">
         <v>220</v>
@@ -896,7 +904,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="3">
         <v>511</v>
@@ -904,7 +912,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="3">
         <v>232</v>
@@ -912,7 +920,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="3">
         <v>22</v>
@@ -920,7 +928,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="3">
         <v>114</v>
@@ -928,7 +936,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="3">
         <v>101</v>
@@ -936,7 +944,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="3">
         <v>1699</v>
@@ -944,7 +952,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="3">
         <v>14</v>
@@ -952,7 +960,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="3">
         <v>402</v>
@@ -960,7 +968,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="3">
         <v>27</v>
@@ -968,7 +976,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="3">
         <v>14</v>
@@ -976,7 +984,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="3">
         <v>191</v>
@@ -984,7 +992,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>226</v>
@@ -992,7 +1000,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>226</v>
@@ -1000,7 +1008,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>41219</v>
@@ -1008,7 +1016,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>297</v>
@@ -1016,7 +1024,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>582</v>
@@ -1024,7 +1032,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>817</v>
@@ -1032,7 +1040,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>3403</v>
@@ -1040,7 +1048,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>217</v>
@@ -1048,7 +1056,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>755</v>
@@ -1056,7 +1064,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>8454</v>
@@ -1064,7 +1072,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>2886</v>
@@ -1072,7 +1080,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>9367</v>
@@ -1080,7 +1088,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>2129</v>
@@ -1088,7 +1096,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>86</v>
@@ -1096,7 +1104,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>4644</v>
@@ -1104,7 +1112,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>335</v>
@@ -1112,7 +1120,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>658</v>
@@ -1120,7 +1128,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>6</v>
@@ -1128,7 +1136,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>662</v>

--- a/data/古籍讨论度.xlsx
+++ b/data/古籍讨论度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\ghzj_back\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100240A0-5A36-4A5F-91C9-CC314F0453E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B303BE2-1DA8-45AD-9C20-AE53E6D162F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -222,11 +222,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>印章题跋人</t>
+    <t>是否有生卒年</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>是否有生卒年</t>
+    <t>题跋人</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -625,9 +625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
@@ -637,13 +635,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3">
